--- a/profiles/info.xlsx
+++ b/profiles/info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - CGIAR\Sustainable Food Systems\2021\profiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431F1EA6-1E94-4B8D-AAFB-9464D8903ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD988AB4-4E6C-4A72-BC1F-C583AF3DF504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11576" xr2:uid="{770CB422-B5A5-4CA9-8A03-8F76A62BD006}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11576" activeTab="2" xr2:uid="{770CB422-B5A5-4CA9-8A03-8F76A62BD006}"/>
   </bookViews>
   <sheets>
     <sheet name="HND" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="105">
   <si>
     <t>Indicator</t>
   </si>
@@ -333,9 +333,6 @@
     <t>Livestock production index (2014-2016 = 100)</t>
   </si>
   <si>
-    <t>Prevalence of diarrheal diseases</t>
-  </si>
-  <si>
     <t>Adult literacy rate, population 15+ years</t>
   </si>
   <si>
@@ -346,6 +343,15 @@
   </si>
   <si>
     <t>% of female employment</t>
+  </si>
+  <si>
+    <t>Retail value of packaged food sales</t>
+  </si>
+  <si>
+    <t>per capita USD</t>
+  </si>
+  <si>
+    <t>Diarrheal diseases-Prevalence-all ages-both sex</t>
   </si>
 </sst>
 </file>
@@ -705,7 +711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F070C2E8-FD2B-4D76-8F4A-A1D551233ACA}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1394,7 +1400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77621035-2245-4287-B5DE-7DE21C84DADE}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1418,6 +1424,12 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1434,6 +1446,12 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1532,18 +1550,27 @@
       <c r="A14" t="s">
         <v>17</v>
       </c>
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
+      <c r="B15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1592,7 +1619,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s">
         <v>40</v>
@@ -1603,7 +1630,7 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s">
         <v>93</v>
@@ -1613,6 +1640,12 @@
       <c r="A23" t="s">
         <v>26</v>
       </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -1685,10 +1718,10 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" t="s">
         <v>101</v>
-      </c>
-      <c r="C30" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
